--- a/Data/Processed/Angiosperms/missing_powo_ipni/Cyclanthaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Cyclanthaceae.xlsx
@@ -1257,7 +1257,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Acta Horti Berg. 18(1): 286, fig. 73d-f, tab. 60. 1958 </t>
+          <t>Acta Horti Berg. 18(1): 286, fig. 73d-f, tab. 60. 1958</t>
         </is>
       </c>
       <c r="J16" t="b">
